--- a/BuildingSheet.xlsx
+++ b/BuildingSheet.xlsx
@@ -699,30 +699,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -794,10 +770,10 @@
   <dimension ref="A1:CS1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.07"/>
@@ -1993,7 +1969,7 @@
         <v>99</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>0</v>

--- a/BuildingSheet.xlsx
+++ b/BuildingSheet.xlsx
@@ -836,10 +836,10 @@
   <dimension ref="A1:CU985"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.07"/>
@@ -13539,8 +13539,8 @@
       <c r="AT42" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AU42" s="21" t="b">
-        <f aca="false">IF(C42="Steel",5)</f>
+      <c r="AU42" s="21" t="n">
+        <f aca="false">IF(C42="Steel",5,0)</f>
         <v>0</v>
       </c>
       <c r="AV42" s="19" t="n">
@@ -28391,7 +28391,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">

--- a/BuildingSheet.xlsx
+++ b/BuildingSheet.xlsx
@@ -570,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:CU3"/>
+  <dimension ref="A1:CU2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
         <v>5000</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1371,287 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customFormat="1" customHeight="1" s="20">
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>400</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>20</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="3" ht="13.5" customFormat="1" customHeight="1" s="20"/>
     <row r="4" ht="13.5" customHeight="1" s="26"/>
     <row r="5" ht="13.5" customHeight="1" s="26"/>
     <row r="6" ht="13.5" customHeight="1" s="26"/>
